--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3581.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3581.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9312821488486819</v>
+        <v>4.129080295562744</v>
       </c>
       <c r="B1">
-        <v>1.333425598864555</v>
+        <v>4.257708549499512</v>
       </c>
       <c r="C1">
-        <v>2.525188920953051</v>
+        <v>2.038357019424438</v>
       </c>
       <c r="D1">
-        <v>5.288476203630755</v>
+        <v>1.549264073371887</v>
       </c>
       <c r="E1">
-        <v>1.752269741212563</v>
+        <v>1.378419399261475</v>
       </c>
     </row>
   </sheetData>
